--- a/results/Homeopathy_excluded/mod1.strain.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod1.strain.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390510481407611</v>
+        <v>0.390509242653651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0195574034366145</v>
+        <v>0.0195573622340266</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.352178675040727</v>
+        <v>0.352177517042355</v>
       </c>
       <c r="F2" t="n">
-        <v>0.428842287774496</v>
+        <v>0.428840968264947</v>
       </c>
       <c r="G2" t="n">
-        <v>19.9673991832941</v>
+        <v>19.9673779102086</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000105821996843035</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000105867068416233</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.236093939749213</v>
+        <v>0.236093419814231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0144728597703575</v>
+        <v>0.0144728415315809</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.207727655846013</v>
+        <v>0.207727171658377</v>
       </c>
       <c r="F3" t="n">
-        <v>0.264460223652412</v>
+        <v>0.264459667970085</v>
       </c>
       <c r="G3" t="n">
-        <v>16.3128741309832</v>
+        <v>16.3128587637096</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000799411159395036</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000079961233203185</v>
       </c>
     </row>
   </sheetData>
